--- a/Doc/Excel/gantt-chart.xlsx
+++ b/Doc/Excel/gantt-chart.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Code\git\MyKata\MyKata_Doc\Doc\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AB970A5-4EFC-438B-961E-07D094238241}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F10DEE7F-E960-4652-884E-888F187E166A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21480" yWindow="1890" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20805" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectTaskList" sheetId="8" r:id="rId1"/>
@@ -1230,7 +1230,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{61CE7FE1-702D-43EE-9C27-6190242BF7EF}" type="CELLRANGE">
+                    <a:fld id="{CD77B10A-82C6-45BD-832E-D7EDEBED2C55}" type="CELLRANGE">
                       <a:rPr lang="zh-TW" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1264,7 +1264,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{8601A48D-9648-4F94-A90F-A7B0CD75ADA2}" type="CELLRANGE">
+                    <a:fld id="{5FDD89AA-F1FF-4C92-8059-5009411CB01B}" type="CELLRANGE">
                       <a:rPr lang="zh-TW" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1298,7 +1298,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{BB3CCF3D-4EF7-491A-9721-B9D68BBF8B96}" type="CELLRANGE">
+                    <a:fld id="{465BB7D9-97D7-4A6B-B71A-34EB880489C4}" type="CELLRANGE">
                       <a:rPr lang="zh-TW" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1332,7 +1332,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E3DC5B65-D4E9-4C93-888D-82479E499084}" type="CELLRANGE">
+                    <a:fld id="{91AE662E-F993-482C-A740-9B57E7FB9BDB}" type="CELLRANGE">
                       <a:rPr lang="zh-TW" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1366,7 +1366,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A95BC50C-389E-4331-A3DC-473D68F361BF}" type="CELLRANGE">
+                    <a:fld id="{62630637-41B3-41CA-9F18-BD596CC3694B}" type="CELLRANGE">
                       <a:rPr lang="zh-TW" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1400,7 +1400,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D125BA97-8A5E-4F08-9D13-5849C0DD0026}" type="CELLRANGE">
+                    <a:fld id="{963225B0-E964-4CED-81E5-4CE9ADD03160}" type="CELLRANGE">
                       <a:rPr lang="zh-TW" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1434,7 +1434,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{75DED5B7-635D-4A63-AF73-0A3E85D3F256}" type="CELLRANGE">
+                    <a:fld id="{9F38F174-FA87-44F7-99AF-A4AE7ED22C6A}" type="CELLRANGE">
                       <a:rPr lang="zh-TW" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1468,7 +1468,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0442F61E-3AC6-4057-AC2B-89CE0593AE69}" type="CELLRANGE">
+                    <a:fld id="{0697ACC1-3C57-4AFD-BD35-37C372E26F63}" type="CELLRANGE">
                       <a:rPr lang="zh-TW" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1502,7 +1502,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{6FB6006F-4CFF-4134-9830-BD149D5D627D}" type="CELLRANGE">
+                    <a:fld id="{5269584D-7C1E-46D0-BC67-7330D44D2858}" type="CELLRANGE">
                       <a:rPr lang="zh-TW" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1536,7 +1536,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{850E6557-BA5B-4819-A54E-07C48E17CD40}" type="CELLRANGE">
+                    <a:fld id="{D7979A5D-F693-46A4-983E-BCB242DF61C3}" type="CELLRANGE">
                       <a:rPr lang="zh-TW" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2030,7 +2030,7 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="500240344"/>
-        <c:crosses val="autoZero"/>
+        <c:crossesAt val="44197"/>
         <c:auto val="0"/>
         <c:lblOffset val="1000"/>
         <c:baseTimeUnit val="days"/>
@@ -2047,16 +2047,43 @@
         <c:axPos val="t"/>
         <c:majorGridlines>
           <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:lumMod val="95000"/>
-                  <a:alpha val="10000"/>
-                </a:schemeClr>
-              </a:solidFill>
+            <a:ln w="635" cap="flat" cmpd="sng" algn="ctr">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="bg1">
+                      <a:lumMod val="85000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="74000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="45000"/>
+                      <a:lumOff val="55000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="83000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="45000"/>
+                      <a:lumOff val="55000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="30000"/>
+                      <a:lumOff val="70000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="1"/>
+              </a:gradFill>
+              <a:prstDash val="sysDot"/>
               <a:round/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:outerShdw dist="50800" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="FFFFFF"/>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
         </c:majorGridlines>
         <c:numFmt formatCode="yyyy/mm" sourceLinked="0"/>
@@ -2096,7 +2123,7 @@
         <c:crossAx val="500243952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
-        <c:majorUnit val="30"/>
+        <c:majorUnit val="31"/>
         <c:minorUnit val="15"/>
       </c:valAx>
       <c:spPr>
@@ -3086,8 +3113,8 @@
   </sheetPr>
   <dimension ref="A1:P19"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
